--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业期末商品库存额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业期末商品库存额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1273 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.6202</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>292.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1197.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>374.2</v>
+      </c>
       <c r="E2" t="n">
-        <v>160.6555</v>
+        <v>712</v>
       </c>
       <c r="F2" t="n">
-        <v>14.021</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>336.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>362.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>320.7</v>
+      </c>
       <c r="J2" t="n">
-        <v>124.6767</v>
+        <v>2526</v>
       </c>
       <c r="K2" t="n">
-        <v>128.9742</v>
+        <v>725.2</v>
       </c>
       <c r="L2" t="n">
-        <v>393.5611</v>
+        <v>703.7</v>
       </c>
       <c r="M2" t="n">
-        <v>26.8433</v>
+        <v>560.8</v>
       </c>
       <c r="N2" t="n">
-        <v>261.7713</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>1790.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6749.9</v>
+      </c>
       <c r="P2" t="n">
-        <v>380.7094</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>661.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>242.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2957.1</v>
+      </c>
       <c r="U2" t="n">
-        <v>890.0007000000001</v>
+        <v>1795.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>455.7174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1299.1008</v>
+      </c>
+      <c r="D3" t="n">
+        <v>553.1353</v>
+      </c>
       <c r="E3" t="n">
-        <v>197.4064</v>
+        <v>948.4698</v>
       </c>
       <c r="F3" t="n">
-        <v>17.113</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>469.4506</v>
+      </c>
+      <c r="G3" t="n">
+        <v>526.9679</v>
+      </c>
+      <c r="H3" t="n">
+        <v>585.3696</v>
+      </c>
+      <c r="I3" t="n">
+        <v>413.7145</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3324.2265</v>
+      </c>
       <c r="K3" t="n">
-        <v>175.0062</v>
+        <v>992.0764</v>
       </c>
       <c r="L3" t="n">
-        <v>374.7624</v>
+        <v>847.0713</v>
       </c>
       <c r="M3" t="n">
-        <v>19.7338</v>
+        <v>910.1897</v>
       </c>
       <c r="N3" t="n">
-        <v>255.0547</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>1765.167</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8334.091899999999</v>
+      </c>
       <c r="P3" t="n">
-        <v>456.4811</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>698.8462</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1051.8254</v>
+      </c>
+      <c r="R3" t="n">
+        <v>254.2373</v>
+      </c>
+      <c r="S3" t="n">
+        <v>229.3124</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3723.8888</v>
+      </c>
       <c r="U3" t="n">
-        <v>939.6965</v>
+        <v>2159.2722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>508.29597</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1213.18312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>611.23919</v>
+      </c>
       <c r="E4" t="n">
-        <v>241.74</v>
+        <v>1219.62139</v>
       </c>
       <c r="F4" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>490.099</v>
+      </c>
+      <c r="G4" t="n">
+        <v>626.30197</v>
+      </c>
+      <c r="H4" t="n">
+        <v>724.99033</v>
+      </c>
+      <c r="I4" t="n">
+        <v>510.44805</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3345.64908</v>
+      </c>
       <c r="K4" t="n">
-        <v>111.25</v>
+        <v>1191.82992</v>
       </c>
       <c r="L4" t="n">
-        <v>322.87</v>
+        <v>1048.07105</v>
       </c>
       <c r="M4" t="n">
-        <v>32.32</v>
+        <v>947.88939</v>
       </c>
       <c r="N4" t="n">
-        <v>165.35</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>2128.23334</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9553.019679999999</v>
+      </c>
       <c r="P4" t="n">
-        <v>414.64</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>793.54076</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2053.15157</v>
+      </c>
+      <c r="R4" t="n">
+        <v>320.60117</v>
+      </c>
+      <c r="S4" t="n">
+        <v>232.61108</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4405.63439</v>
+      </c>
       <c r="U4" t="n">
-        <v>827.89</v>
+        <v>2513.41134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.57283</v>
+        <v>571.58556</v>
       </c>
       <c r="C5" t="n">
-        <v>441.92432</v>
+        <v>1459.75731</v>
       </c>
       <c r="D5" t="n">
-        <v>80.34683</v>
+        <v>549.28485</v>
       </c>
       <c r="E5" t="n">
-        <v>250.36062</v>
+        <v>1388.65317</v>
       </c>
       <c r="F5" t="n">
-        <v>37.79546</v>
+        <v>506.31438</v>
       </c>
       <c r="G5" t="n">
-        <v>115.87848</v>
+        <v>798.7476</v>
       </c>
       <c r="H5" t="n">
-        <v>67.58606</v>
+        <v>773.5590099999999</v>
       </c>
       <c r="I5" t="n">
-        <v>56.8714</v>
+        <v>613.61786</v>
       </c>
       <c r="J5" t="n">
-        <v>476.16574</v>
+        <v>3713.33379</v>
       </c>
       <c r="K5" t="n">
-        <v>152.8302</v>
+        <v>1173.79762</v>
       </c>
       <c r="L5" t="n">
-        <v>322.48813</v>
+        <v>1282.08271</v>
       </c>
       <c r="M5" t="n">
-        <v>33.58947</v>
+        <v>1037.93941</v>
       </c>
       <c r="N5" t="n">
-        <v>198.75639</v>
+        <v>2415.34154</v>
       </c>
       <c r="O5" t="n">
-        <v>747.61699</v>
+        <v>9451.21153</v>
       </c>
       <c r="P5" t="n">
-        <v>137.26457</v>
+        <v>895.32375</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.45424</v>
+        <v>2398.52367</v>
       </c>
       <c r="R5" t="n">
-        <v>17.62574</v>
+        <v>341.37623</v>
       </c>
       <c r="S5" t="n">
-        <v>86.43549</v>
+        <v>266.69767</v>
       </c>
       <c r="T5" t="n">
-        <v>313.12126</v>
+        <v>3553.94944</v>
       </c>
       <c r="U5" t="n">
-        <v>539.56127</v>
+        <v>3212.19292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270.62351</v>
+        <v>536.77976</v>
       </c>
       <c r="C6" t="n">
-        <v>876.92484</v>
+        <v>1681.32027</v>
       </c>
       <c r="D6" t="n">
-        <v>162.4795</v>
+        <v>571.5439699999999</v>
       </c>
       <c r="E6" t="n">
-        <v>373.22021</v>
+        <v>2868.24464</v>
       </c>
       <c r="F6" t="n">
-        <v>95.53618</v>
+        <v>541.5369899999999</v>
       </c>
       <c r="G6" t="n">
-        <v>139.20387</v>
+        <v>964.8000500000001</v>
       </c>
       <c r="H6" t="n">
-        <v>221.37055</v>
+        <v>1092.81143</v>
       </c>
       <c r="I6" t="n">
-        <v>85.63052</v>
+        <v>809.24414</v>
       </c>
       <c r="J6" t="n">
-        <v>878.20552</v>
+        <v>4211.41051</v>
       </c>
       <c r="K6" t="n">
-        <v>191.7775</v>
+        <v>1626.95501</v>
       </c>
       <c r="L6" t="n">
-        <v>375.66787</v>
+        <v>1125.38487</v>
       </c>
       <c r="M6" t="n">
-        <v>113.60481</v>
+        <v>988.07403</v>
       </c>
       <c r="N6" t="n">
-        <v>453.10532</v>
+        <v>2288.31401</v>
       </c>
       <c r="O6" t="n">
-        <v>1797.43292</v>
+        <v>9445.76167</v>
       </c>
       <c r="P6" t="n">
-        <v>170.88527</v>
+        <v>884.42634</v>
       </c>
       <c r="Q6" t="n">
-        <v>230.4007</v>
+        <v>2999.20147</v>
       </c>
       <c r="R6" t="n">
-        <v>59.15278</v>
+        <v>330.28348</v>
       </c>
       <c r="S6" t="n">
-        <v>15.17172</v>
+        <v>308.95034</v>
       </c>
       <c r="T6" t="n">
-        <v>695.4362</v>
+        <v>3645.96238</v>
       </c>
       <c r="U6" t="n">
-        <v>693.62695</v>
+        <v>3064.43055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.09725</v>
+        <v>515.9031</v>
       </c>
       <c r="C7" t="n">
-        <v>821.46761</v>
+        <v>1846.5612</v>
       </c>
       <c r="D7" t="n">
-        <v>160.10429</v>
+        <v>412.0025</v>
       </c>
       <c r="E7" t="n">
-        <v>340.14674</v>
+        <v>2840.0281</v>
       </c>
       <c r="F7" t="n">
-        <v>123.49641</v>
+        <v>507.2659</v>
       </c>
       <c r="G7" t="n">
-        <v>159.55005</v>
+        <v>980.647</v>
       </c>
       <c r="H7" t="n">
-        <v>193.48215</v>
+        <v>1135.058</v>
       </c>
       <c r="I7" t="n">
-        <v>115.83905</v>
+        <v>714.8472</v>
       </c>
       <c r="J7" t="n">
-        <v>905.09021</v>
+        <v>4467.5928</v>
       </c>
       <c r="K7" t="n">
-        <v>175.94247</v>
+        <v>1532.448</v>
       </c>
       <c r="L7" t="n">
-        <v>350.88179</v>
+        <v>1285.0102</v>
       </c>
       <c r="M7" t="n">
-        <v>109.68997</v>
+        <v>734.9156</v>
       </c>
       <c r="N7" t="n">
-        <v>624.52192</v>
+        <v>2576.7799</v>
       </c>
       <c r="O7" t="n">
-        <v>2114.64262</v>
+        <v>8184.8487</v>
       </c>
       <c r="P7" t="n">
-        <v>178.50963</v>
+        <v>855.3699</v>
       </c>
       <c r="Q7" t="n">
-        <v>312.01723</v>
+        <v>2996.7401</v>
       </c>
       <c r="R7" t="n">
-        <v>56.08904</v>
+        <v>321.4998</v>
       </c>
       <c r="S7" t="n">
-        <v>41.79808</v>
+        <v>277.4482</v>
       </c>
       <c r="T7" t="n">
-        <v>803.46304</v>
+        <v>2835.7632</v>
       </c>
       <c r="U7" t="n">
-        <v>714.79877</v>
+        <v>3268.7312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.17829</v>
+        <v>486.3989</v>
       </c>
       <c r="C8" t="n">
-        <v>816.7196300000001</v>
+        <v>2141.9646</v>
       </c>
       <c r="D8" t="n">
-        <v>200.64261</v>
+        <v>383.5299</v>
       </c>
       <c r="E8" t="n">
-        <v>392.61084</v>
+        <v>2211.1315</v>
       </c>
       <c r="F8" t="n">
-        <v>163.87046</v>
+        <v>491.7654</v>
       </c>
       <c r="G8" t="n">
-        <v>185.66761</v>
+        <v>1139.1726</v>
       </c>
       <c r="H8" t="n">
-        <v>187.21791</v>
+        <v>1289.7427</v>
       </c>
       <c r="I8" t="n">
-        <v>160.04522</v>
+        <v>706.7997</v>
       </c>
       <c r="J8" t="n">
-        <v>1059.67443</v>
+        <v>4159.6261</v>
       </c>
       <c r="K8" t="n">
-        <v>211.79329</v>
+        <v>1328.3758</v>
       </c>
       <c r="L8" t="n">
-        <v>361.20082</v>
+        <v>1460.6172</v>
       </c>
       <c r="M8" t="n">
-        <v>149.26952</v>
+        <v>909.5313</v>
       </c>
       <c r="N8" t="n">
-        <v>660.259</v>
+        <v>2519.49</v>
       </c>
       <c r="O8" t="n">
-        <v>2669.77049</v>
+        <v>9309.7678</v>
       </c>
       <c r="P8" t="n">
-        <v>199.37803</v>
+        <v>1048.7778</v>
       </c>
       <c r="Q8" t="n">
-        <v>404.43961</v>
+        <v>3274.8959</v>
       </c>
       <c r="R8" t="n">
-        <v>69.50279</v>
+        <v>347.1396</v>
       </c>
       <c r="S8" t="n">
-        <v>76.24015</v>
+        <v>205.5314</v>
       </c>
       <c r="T8" t="n">
-        <v>1142.03548</v>
+        <v>3679.1746</v>
       </c>
       <c r="U8" t="n">
-        <v>754.6205</v>
+        <v>4367.221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>246.0754</v>
+        <v>594.745</v>
       </c>
       <c r="C9" t="n">
-        <v>876.6006</v>
+        <v>2281.027</v>
       </c>
       <c r="D9" t="n">
-        <v>412.6355</v>
+        <v>406.545</v>
       </c>
       <c r="E9" t="n">
-        <v>506.7849</v>
+        <v>2640.305</v>
       </c>
       <c r="F9" t="n">
-        <v>265.4722</v>
+        <v>568.338</v>
       </c>
       <c r="G9" t="n">
-        <v>319.884</v>
+        <v>1359.651</v>
       </c>
       <c r="H9" t="n">
-        <v>307.5674</v>
+        <v>2896.242</v>
       </c>
       <c r="I9" t="n">
-        <v>344.8028</v>
+        <v>794.894</v>
       </c>
       <c r="J9" t="n">
-        <v>2216.3748</v>
+        <v>5169.832</v>
       </c>
       <c r="K9" t="n">
-        <v>577.0419000000001</v>
+        <v>1681.158</v>
       </c>
       <c r="L9" t="n">
-        <v>543.8497</v>
+        <v>1064.312</v>
       </c>
       <c r="M9" t="n">
-        <v>422.6442</v>
+        <v>912.481</v>
       </c>
       <c r="N9" t="n">
-        <v>1197.9418</v>
+        <v>2789.11</v>
       </c>
       <c r="O9" t="n">
-        <v>4986.5823</v>
+        <v>10799.24</v>
       </c>
       <c r="P9" t="n">
-        <v>544.6555</v>
+        <v>983.4640000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>742.8056</v>
+        <v>4938.305</v>
       </c>
       <c r="R9" t="n">
-        <v>252.347</v>
+        <v>487.293</v>
       </c>
       <c r="S9" t="n">
-        <v>225.8082</v>
+        <v>236.567</v>
       </c>
       <c r="T9" t="n">
-        <v>2083.3453</v>
+        <v>4386.991</v>
       </c>
       <c r="U9" t="n">
-        <v>1554.8475</v>
+        <v>3589.333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.85479</v>
+        <v>593.3</v>
       </c>
       <c r="C10" t="n">
-        <v>946.93358</v>
+        <v>1938.1</v>
       </c>
       <c r="D10" t="n">
-        <v>296.92525</v>
+        <v>397.1</v>
       </c>
       <c r="E10" t="n">
-        <v>619.6137199999999</v>
+        <v>2953</v>
       </c>
       <c r="F10" t="n">
-        <v>302.24384</v>
+        <v>656</v>
       </c>
       <c r="G10" t="n">
-        <v>273.8894</v>
+        <v>1242</v>
       </c>
       <c r="H10" t="n">
-        <v>384.89671</v>
+        <v>1089.9</v>
       </c>
       <c r="I10" t="n">
-        <v>221.62109</v>
+        <v>837.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2036.5693</v>
+        <v>5228</v>
       </c>
       <c r="K10" t="n">
-        <v>566.8876</v>
+        <v>1995.1</v>
       </c>
       <c r="L10" t="n">
-        <v>631.58281</v>
+        <v>1035.9</v>
       </c>
       <c r="M10" t="n">
-        <v>504.72518</v>
+        <v>920.9</v>
       </c>
       <c r="N10" t="n">
-        <v>1301.96886</v>
+        <v>2831.7</v>
       </c>
       <c r="O10" t="n">
-        <v>5321.66744</v>
+        <v>11032.2</v>
       </c>
       <c r="P10" t="n">
-        <v>494.44519</v>
+        <v>1178</v>
       </c>
       <c r="Q10" t="n">
-        <v>633.72192</v>
+        <v>4298.7</v>
       </c>
       <c r="R10" t="n">
-        <v>151.62729</v>
+        <v>493.2</v>
       </c>
       <c r="S10" t="n">
-        <v>202.27965</v>
+        <v>191.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2251.13104</v>
+        <v>4439.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1516.77982</v>
+        <v>3725.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.5</v>
+        <v>556.2455</v>
       </c>
       <c r="C11" t="n">
-        <v>1197.9</v>
+        <v>2385.0142</v>
       </c>
       <c r="D11" t="n">
-        <v>374.2</v>
+        <v>393.5109</v>
       </c>
       <c r="E11" t="n">
-        <v>712</v>
+        <v>3476.3833</v>
       </c>
       <c r="F11" t="n">
-        <v>336.5</v>
+        <v>908.7538</v>
       </c>
       <c r="G11" t="n">
-        <v>362.7</v>
+        <v>1339.9143</v>
       </c>
       <c r="H11" t="n">
-        <v>474.5</v>
+        <v>1609.7842</v>
       </c>
       <c r="I11" t="n">
-        <v>320.7</v>
+        <v>931.5827</v>
       </c>
       <c r="J11" t="n">
-        <v>2526</v>
+        <v>5812.2693</v>
       </c>
       <c r="K11" t="n">
-        <v>725.2</v>
+        <v>2169.272</v>
       </c>
       <c r="L11" t="n">
-        <v>703.7</v>
+        <v>1050.8316</v>
       </c>
       <c r="M11" t="n">
-        <v>560.8</v>
+        <v>1212.1705</v>
       </c>
       <c r="N11" t="n">
-        <v>1790.3</v>
+        <v>3190.131</v>
       </c>
       <c r="O11" t="n">
-        <v>6749.9</v>
+        <v>12216.491</v>
       </c>
       <c r="P11" t="n">
-        <v>661.1</v>
+        <v>1338.3697</v>
       </c>
       <c r="Q11" t="n">
-        <v>832.5</v>
+        <v>4607.9723</v>
       </c>
       <c r="R11" t="n">
-        <v>185.3</v>
+        <v>482.2813</v>
       </c>
       <c r="S11" t="n">
-        <v>242.8</v>
+        <v>221.6432</v>
       </c>
       <c r="T11" t="n">
-        <v>2957.1</v>
+        <v>4544.9681</v>
       </c>
       <c r="U11" t="n">
-        <v>1795.9</v>
+        <v>4420.0396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455.7174</v>
+        <v>677.5085</v>
       </c>
       <c r="C12" t="n">
-        <v>1299.1008</v>
+        <v>2955.7608</v>
       </c>
       <c r="D12" t="n">
-        <v>553.1353</v>
+        <v>445.0492</v>
       </c>
       <c r="E12" t="n">
-        <v>948.4698</v>
+        <v>4434.2735</v>
       </c>
       <c r="F12" t="n">
-        <v>469.4506</v>
+        <v>1138.0969</v>
       </c>
       <c r="G12" t="n">
-        <v>526.9679</v>
+        <v>1402.8402</v>
       </c>
       <c r="H12" t="n">
-        <v>585.3696</v>
+        <v>3070.4325</v>
       </c>
       <c r="I12" t="n">
-        <v>413.7145</v>
+        <v>975.092</v>
       </c>
       <c r="J12" t="n">
-        <v>3324.2265</v>
+        <v>6300.7442</v>
       </c>
       <c r="K12" t="n">
-        <v>992.0764</v>
+        <v>2367.73</v>
       </c>
       <c r="L12" t="n">
-        <v>847.0713</v>
+        <v>964.295</v>
       </c>
       <c r="M12" t="n">
-        <v>910.1897</v>
+        <v>1266.5979</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.167</v>
+        <v>2642.5445</v>
       </c>
       <c r="O12" t="n">
-        <v>8334.091899999999</v>
+        <v>13227.3177</v>
       </c>
       <c r="P12" t="n">
-        <v>698.8462</v>
+        <v>1614.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>1051.8254</v>
+        <v>6227.3496</v>
       </c>
       <c r="R12" t="n">
-        <v>254.2373</v>
+        <v>636.6385</v>
       </c>
       <c r="S12" t="n">
-        <v>229.3124</v>
+        <v>216.3141</v>
       </c>
       <c r="T12" t="n">
-        <v>3723.8888</v>
+        <v>5630.6785</v>
       </c>
       <c r="U12" t="n">
-        <v>2159.2722</v>
+        <v>4894.0898</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.29597</v>
+        <v>930.8088</v>
       </c>
       <c r="C13" t="n">
-        <v>1213.18312</v>
+        <v>3220.1049</v>
       </c>
       <c r="D13" t="n">
-        <v>611.23919</v>
+        <v>536.0503</v>
       </c>
       <c r="E13" t="n">
-        <v>1219.62139</v>
+        <v>4144.977</v>
       </c>
       <c r="F13" t="n">
-        <v>490.099</v>
+        <v>1283.4119</v>
       </c>
       <c r="G13" t="n">
-        <v>626.30197</v>
+        <v>1643.2955</v>
       </c>
       <c r="H13" t="n">
-        <v>724.99033</v>
+        <v>1233.6985</v>
       </c>
       <c r="I13" t="n">
-        <v>510.44805</v>
+        <v>1014.4735</v>
       </c>
       <c r="J13" t="n">
-        <v>3345.64908</v>
+        <v>7243.4548</v>
       </c>
       <c r="K13" t="n">
-        <v>1191.82992</v>
+        <v>2180.6364</v>
       </c>
       <c r="L13" t="n">
-        <v>1048.07105</v>
+        <v>1002.0288</v>
       </c>
       <c r="M13" t="n">
-        <v>947.88939</v>
+        <v>1739.458</v>
       </c>
       <c r="N13" t="n">
-        <v>2128.23334</v>
+        <v>3253.4127</v>
       </c>
       <c r="O13" t="n">
-        <v>9553.019679999999</v>
+        <v>15607.5872</v>
       </c>
       <c r="P13" t="n">
-        <v>793.54076</v>
+        <v>1752.8832</v>
       </c>
       <c r="Q13" t="n">
-        <v>2053.15157</v>
+        <v>4572.4587</v>
       </c>
       <c r="R13" t="n">
-        <v>320.60117</v>
+        <v>855.5912</v>
       </c>
       <c r="S13" t="n">
-        <v>232.61108</v>
+        <v>226.5451</v>
       </c>
       <c r="T13" t="n">
-        <v>4405.63439</v>
+        <v>6306.1332</v>
       </c>
       <c r="U13" t="n">
-        <v>2513.41134</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>571.58556</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1459.75731</v>
-      </c>
-      <c r="D14" t="n">
-        <v>549.28485</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1388.65317</v>
-      </c>
-      <c r="F14" t="n">
-        <v>506.31438</v>
-      </c>
-      <c r="G14" t="n">
-        <v>798.7476</v>
-      </c>
-      <c r="H14" t="n">
-        <v>773.5590099999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>613.61786</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3713.33379</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1173.79762</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1282.08271</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1037.93941</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2415.34154</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9451.21153</v>
-      </c>
-      <c r="P14" t="n">
-        <v>895.32375</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2398.52367</v>
-      </c>
-      <c r="R14" t="n">
-        <v>341.37623</v>
-      </c>
-      <c r="S14" t="n">
-        <v>266.69767</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3553.94944</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3212.19292</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>536.77976</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1681.32027</v>
-      </c>
-      <c r="D15" t="n">
-        <v>571.5439699999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2868.24464</v>
-      </c>
-      <c r="F15" t="n">
-        <v>541.5369899999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>964.8000500000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1092.81143</v>
-      </c>
-      <c r="I15" t="n">
-        <v>809.24414</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4211.41051</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1626.95501</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1125.38487</v>
-      </c>
-      <c r="M15" t="n">
-        <v>988.07403</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2288.31401</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9445.76167</v>
-      </c>
-      <c r="P15" t="n">
-        <v>884.42634</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2999.20147</v>
-      </c>
-      <c r="R15" t="n">
-        <v>330.28348</v>
-      </c>
-      <c r="S15" t="n">
-        <v>308.95034</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3645.96238</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3064.43055</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>515.9031</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1846.5612</v>
-      </c>
-      <c r="D16" t="n">
-        <v>412.0025</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2840.0281</v>
-      </c>
-      <c r="F16" t="n">
-        <v>507.2659</v>
-      </c>
-      <c r="G16" t="n">
-        <v>980.647</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1135.058</v>
-      </c>
-      <c r="I16" t="n">
-        <v>714.8472</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4467.5928</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1532.448</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1285.0102</v>
-      </c>
-      <c r="M16" t="n">
-        <v>734.9156</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2576.7799</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8184.8487</v>
-      </c>
-      <c r="P16" t="n">
-        <v>855.3699</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2996.7401</v>
-      </c>
-      <c r="R16" t="n">
-        <v>321.4998</v>
-      </c>
-      <c r="S16" t="n">
-        <v>277.4482</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2835.7632</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3268.7312</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>486.3989</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2141.9646</v>
-      </c>
-      <c r="D17" t="n">
-        <v>383.5299</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2211.1315</v>
-      </c>
-      <c r="F17" t="n">
-        <v>491.7654</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1139.1726</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1289.7427</v>
-      </c>
-      <c r="I17" t="n">
-        <v>706.7997</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4159.6261</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1328.3758</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1460.6172</v>
-      </c>
-      <c r="M17" t="n">
-        <v>909.5313</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2519.49</v>
-      </c>
-      <c r="O17" t="n">
-        <v>9309.7678</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1048.7778</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3274.8959</v>
-      </c>
-      <c r="R17" t="n">
-        <v>347.1396</v>
-      </c>
-      <c r="S17" t="n">
-        <v>205.5314</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3679.1746</v>
-      </c>
-      <c r="U17" t="n">
-        <v>4367.221</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>594.745</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2281.027</v>
-      </c>
-      <c r="D18" t="n">
-        <v>406.545</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2640.305</v>
-      </c>
-      <c r="F18" t="n">
-        <v>568.338</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1359.651</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2896.242</v>
-      </c>
-      <c r="I18" t="n">
-        <v>794.894</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5169.832</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1681.158</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1064.312</v>
-      </c>
-      <c r="M18" t="n">
-        <v>912.481</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2789.11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>10799.24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>983.4640000000001</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4938.305</v>
-      </c>
-      <c r="R18" t="n">
-        <v>487.293</v>
-      </c>
-      <c r="S18" t="n">
-        <v>236.567</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4386.991</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3589.333</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>593.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1938.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>397.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2953</v>
-      </c>
-      <c r="F19" t="n">
-        <v>656</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1242</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1089.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>837.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5228</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1995.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1035.9</v>
-      </c>
-      <c r="M19" t="n">
-        <v>920.9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2831.7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>11032.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1178</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4298.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>493.2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4439.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3725.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>556.2455</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2385.0142</v>
-      </c>
-      <c r="D20" t="n">
-        <v>393.5109</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3476.3833</v>
-      </c>
-      <c r="F20" t="n">
-        <v>908.7538</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1339.9143</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1609.7842</v>
-      </c>
-      <c r="I20" t="n">
-        <v>931.5827</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5812.2693</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2169.272</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1050.8316</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1212.1705</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3190.131</v>
-      </c>
-      <c r="O20" t="n">
-        <v>12216.491</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1338.3697</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4607.9723</v>
-      </c>
-      <c r="R20" t="n">
-        <v>482.2813</v>
-      </c>
-      <c r="S20" t="n">
-        <v>221.6432</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4544.9681</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4420.0396</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>677.5085</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2955.7608</v>
-      </c>
-      <c r="D21" t="n">
-        <v>445.0492</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4434.2735</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1138.0969</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1402.8402</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3070.4325</v>
-      </c>
-      <c r="I21" t="n">
-        <v>975.092</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6300.7442</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2367.73</v>
-      </c>
-      <c r="L21" t="n">
-        <v>964.295</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1266.5979</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2642.5445</v>
-      </c>
-      <c r="O21" t="n">
-        <v>13227.3177</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1614.89</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6227.3496</v>
-      </c>
-      <c r="R21" t="n">
-        <v>636.6385</v>
-      </c>
-      <c r="S21" t="n">
-        <v>216.3141</v>
-      </c>
-      <c r="T21" t="n">
-        <v>5630.6785</v>
-      </c>
-      <c r="U21" t="n">
-        <v>4894.0898</v>
+        <v>5563.4143</v>
       </c>
     </row>
   </sheetData>
